--- a/Integration.xlsx
+++ b/Integration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Dir name</t>
   </si>
@@ -250,6 +250,57 @@
   </si>
   <si>
     <t>faculty_verification.php</t>
+  </si>
+  <si>
+    <t>Chnaging header.php</t>
+  </si>
+  <si>
+    <t>path of studen and faculty verify user</t>
+  </si>
+  <si>
+    <t>include  image path var in commonVar.php</t>
+  </si>
+  <si>
+    <t>manage_video</t>
+  </si>
+  <si>
+    <t>manage_video.js</t>
+  </si>
+  <si>
+    <t>db settings</t>
+  </si>
+  <si>
+    <t>Admin forum</t>
+  </si>
+  <si>
+    <t>try_DAVV_tube</t>
+  </si>
+  <si>
+    <t>db and host settings</t>
+  </si>
+  <si>
+    <t>allow_post.php</t>
+  </si>
+  <si>
+    <t>include(connection.php)</t>
+  </si>
+  <si>
+    <t>allow_reply.php</t>
+  </si>
+  <si>
+    <t>connection.php</t>
+  </si>
+  <si>
+    <t>deny_post.php</t>
+  </si>
+  <si>
+    <t>deny_reply.php</t>
+  </si>
+  <si>
+    <t>verify_post.php</t>
+  </si>
+  <si>
+    <t>verify_reply.php</t>
   </si>
 </sst>
 </file>
@@ -590,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1073,6 +1124,108 @@
         <v>74</v>
       </c>
       <c r="E78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>85</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+      <c r="E97" t="s">
         <v>57</v>
       </c>
     </row>
